--- a/Microservices/FilesMicroservice/Files.Api/wwwroot/test/ShippingPlanTemplate-TEST.xlsx
+++ b/Microservices/FilesMicroservice/Files.Api/wwwroot/test/ShippingPlanTemplate-TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa\Desktop\spatronics-shipping-application\Microservices\FilesMicroservice\Files.Api\wwwroot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1BFB5-8E49-4AAD-AB5B-20497C136CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA2224-0B10-454B-A61E-17FBE4180C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
+  <si>
+    <t>ShippingPlanId</t>
+  </si>
   <si>
     <t>CustomerName</t>
   </si>
@@ -52,100 +55,31 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>SHIPPINGPLAN1</t>
+  </si>
+  <si>
+    <t>TRUONG VAN TAI</t>
+  </si>
+  <si>
+    <t>334323232323</t>
+  </si>
+  <si>
     <t>Nguyen Ngoc Dang Khoa</t>
   </si>
   <si>
-    <t>Truong Van Tai</t>
-  </si>
-  <si>
-    <t>AAA161112</t>
-  </si>
-  <si>
-    <t>AAA161113</t>
-  </si>
-  <si>
-    <t>AAA161114</t>
-  </si>
-  <si>
-    <t>AAA161115</t>
-  </si>
-  <si>
-    <t>AAA161116</t>
-  </si>
-  <si>
-    <t>AAA161117</t>
-  </si>
-  <si>
-    <t>AAA161118</t>
-  </si>
-  <si>
-    <t>AAA161119</t>
-  </si>
-  <si>
-    <t>AAA161120</t>
-  </si>
-  <si>
-    <t>AAA161121</t>
-  </si>
-  <si>
-    <t>AAA161122</t>
-  </si>
-  <si>
-    <t>AAA161123</t>
-  </si>
-  <si>
-    <t>AAA161124</t>
-  </si>
-  <si>
-    <t>AAA161125</t>
-  </si>
-  <si>
     <t>Grab</t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>ABC66666661</t>
-  </si>
-  <si>
-    <t>ABC66666662</t>
-  </si>
-  <si>
-    <t>ABC66666663</t>
-  </si>
-  <si>
-    <t>ABC66666664</t>
-  </si>
-  <si>
-    <t>ABC66666665</t>
-  </si>
-  <si>
-    <t>ABC66666666</t>
-  </si>
-  <si>
-    <t>ABC66666667</t>
-  </si>
-  <si>
-    <t>ABC66666668</t>
-  </si>
-  <si>
-    <t>ABC66666669</t>
-  </si>
-  <si>
-    <t>ABC66666670</t>
-  </si>
-  <si>
-    <t>ABC66666671</t>
-  </si>
-  <si>
-    <t>ABC66666672</t>
-  </si>
-  <si>
-    <t>ABC66666673</t>
-  </si>
-  <si>
-    <t>ABC66666674</t>
+    <t>Product Number 3</t>
+  </si>
+  <si>
+    <t>Product Number 1</t>
+  </si>
+  <si>
+    <t>Product Number 2</t>
   </si>
 </sst>
 </file>
@@ -207,16 +141,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -534,18 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+      <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="10" width="30" style="1" customWidth="1"/>
+    <col min="1" max="11" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,457 +514,536 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44252</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44253</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44254</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3">
-        <v>44255</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44256</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44257</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44258</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44259</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44260</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44261</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44262</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44263</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44264</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44265</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4">
+        <v>44285</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
